--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/sjx619_ku_dk/Documents/Documents/GitHub/MERS-CoV-Utrecht-Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97FD725-09A6-4308-8244-4DDB4E64634C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{A97FD725-09A6-4308-8244-4DDB4E64634C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7072ED8-0F46-4919-B381-9143A01A8375}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{23194D70-C8C7-4237-B8B7-83AA0EBC83C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="31">
   <si>
     <t>N0c</t>
   </si>
@@ -98,9 +98,6 @@
     <t>muh</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>0.0019</t>
   </si>
   <si>
@@ -120,6 +117,18 @@
   </si>
   <si>
     <t>0.0048</t>
+  </si>
+  <si>
+    <t>0.0896</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
 </sst>
 </file>
@@ -184,7 +193,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1370B5E8-DD04-4A06-A81E-8D67E31D6157}" name="Table2" displayName="Table2" ref="B2:V22" totalsRowShown="0">
   <autoFilter ref="B2:V22" xr:uid="{1370B5E8-DD04-4A06-A81E-8D67E31D6157}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{74A1B135-A18B-4D9C-A678-D41F39BF6555}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{74A1B135-A18B-4D9C-A678-D41F39BF6555}" name="Scenarios"/>
     <tableColumn id="2" xr3:uid="{E25E4DD3-985D-4B66-A6F1-BCA55EB1F7A4}" name="N0c"/>
     <tableColumn id="3" xr3:uid="{4E6493DA-DCA3-4632-9BB2-E64756D9599F}" name="pc"/>
     <tableColumn id="4" xr3:uid="{625A2A10-EA6A-4CD4-B3AE-58DC833AFC0B}" name="W0c"/>
@@ -529,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D089D767-0688-4856-B1B6-3BC53DEDA9EE}">
   <dimension ref="B2:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +550,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -618,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -629,17 +638,20 @@
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -651,19 +663,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s">
         <v>23</v>
       </c>
-      <c r="S3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" t="s">
-        <v>24</v>
-      </c>
       <c r="U3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.35">
@@ -680,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -691,6 +703,9 @@
       <c r="I4">
         <v>20</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
       <c r="K4">
         <v>1</v>
       </c>
@@ -698,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -713,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" t="s">
         <v>23</v>
       </c>
-      <c r="S4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" t="s">
-        <v>24</v>
-      </c>
       <c r="U4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.35">
@@ -742,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -753,6 +768,9 @@
       <c r="I5">
         <v>40</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
       <c r="K5">
         <v>1</v>
       </c>
@@ -760,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -775,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" t="s">
         <v>23</v>
       </c>
-      <c r="S5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" t="s">
-        <v>24</v>
-      </c>
       <c r="U5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
@@ -804,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -815,6 +833,9 @@
       <c r="I6">
         <v>60</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
       <c r="K6">
         <v>1</v>
       </c>
@@ -822,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -837,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" t="s">
         <v>23</v>
       </c>
-      <c r="S6" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" t="s">
-        <v>24</v>
-      </c>
       <c r="U6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.35">
@@ -866,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -877,6 +898,9 @@
       <c r="I7">
         <v>80</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
       <c r="K7">
         <v>1</v>
       </c>
@@ -884,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -899,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" t="s">
         <v>23</v>
       </c>
-      <c r="S7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" t="s">
-        <v>24</v>
-      </c>
       <c r="U7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
@@ -928,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -939,6 +963,9 @@
       <c r="I8">
         <v>100</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>1</v>
       </c>
@@ -946,13 +973,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -961,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" t="s">
         <v>23</v>
       </c>
-      <c r="S8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" t="s">
-        <v>24</v>
-      </c>
       <c r="U8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
@@ -990,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1001,6 +1028,9 @@
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
       <c r="K9">
         <v>1</v>
       </c>
@@ -1008,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1023,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" t="s">
         <v>23</v>
       </c>
-      <c r="S9" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" t="s">
-        <v>24</v>
-      </c>
       <c r="U9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.35">
@@ -1052,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1063,6 +1093,9 @@
       <c r="I10">
         <v>0</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
       <c r="K10">
         <v>1</v>
       </c>
@@ -1070,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1085,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" t="s">
         <v>23</v>
       </c>
-      <c r="S10" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" t="s">
-        <v>24</v>
-      </c>
       <c r="U10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.35">
@@ -1114,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1125,6 +1158,9 @@
       <c r="I11">
         <v>0</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
       <c r="K11">
         <v>1</v>
       </c>
@@ -1132,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1147,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" t="s">
         <v>23</v>
       </c>
-      <c r="S11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" t="s">
-        <v>24</v>
-      </c>
       <c r="U11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.35">
@@ -1176,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1187,6 +1223,9 @@
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
       <c r="K12">
         <v>1</v>
       </c>
@@ -1194,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1209,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" t="s">
         <v>23</v>
       </c>
-      <c r="S12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" t="s">
-        <v>24</v>
-      </c>
       <c r="U12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.35">
@@ -1238,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1249,6 +1288,9 @@
       <c r="I13">
         <v>0</v>
       </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
@@ -1256,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1271,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" t="s">
         <v>23</v>
       </c>
-      <c r="S13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" t="s">
-        <v>24</v>
-      </c>
       <c r="U13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.35">
@@ -1300,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1311,6 +1353,9 @@
       <c r="I14">
         <v>20</v>
       </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
       <c r="K14">
         <v>1</v>
       </c>
@@ -1318,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1333,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" t="s">
         <v>23</v>
       </c>
-      <c r="S14" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" t="s">
-        <v>24</v>
-      </c>
       <c r="U14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.35">
@@ -1362,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1373,6 +1418,9 @@
       <c r="I15">
         <v>40</v>
       </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
       <c r="K15">
         <v>1</v>
       </c>
@@ -1380,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1395,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" t="s">
         <v>23</v>
       </c>
-      <c r="S15" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" t="s">
-        <v>24</v>
-      </c>
       <c r="U15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.35">
@@ -1424,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1435,6 +1483,9 @@
       <c r="I16">
         <v>60</v>
       </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
       <c r="K16">
         <v>1</v>
       </c>
@@ -1442,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1457,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16" t="s">
         <v>23</v>
       </c>
-      <c r="S16" t="s">
-        <v>23</v>
-      </c>
-      <c r="T16" t="s">
-        <v>24</v>
-      </c>
       <c r="U16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
@@ -1486,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1497,6 +1548,9 @@
       <c r="I17">
         <v>80</v>
       </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
       <c r="K17">
         <v>1</v>
       </c>
@@ -1504,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1519,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" t="s">
         <v>23</v>
       </c>
-      <c r="S17" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" t="s">
-        <v>24</v>
-      </c>
       <c r="U17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.35">
@@ -1548,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1559,6 +1613,9 @@
       <c r="I18">
         <v>100</v>
       </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
       <c r="K18">
         <v>1</v>
       </c>
@@ -1566,13 +1623,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1581,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" t="s">
         <v>23</v>
       </c>
-      <c r="S18" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" t="s">
-        <v>24</v>
-      </c>
       <c r="U18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.35">
@@ -1610,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1621,6 +1678,9 @@
       <c r="I19">
         <v>40</v>
       </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
       <c r="K19">
         <v>1</v>
       </c>
@@ -1628,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1643,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" t="s">
         <v>23</v>
       </c>
-      <c r="S19" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" t="s">
-        <v>24</v>
-      </c>
       <c r="U19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
@@ -1672,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1683,6 +1743,9 @@
       <c r="I20">
         <v>20</v>
       </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
       <c r="K20">
         <v>1</v>
       </c>
@@ -1690,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1705,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" t="s">
         <v>23</v>
       </c>
-      <c r="S20" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" t="s">
-        <v>24</v>
-      </c>
       <c r="U20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.35">
@@ -1734,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1745,6 +1808,9 @@
       <c r="I21">
         <v>60</v>
       </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
       <c r="K21">
         <v>1</v>
       </c>
@@ -1752,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1767,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" t="s">
         <v>23</v>
       </c>
-      <c r="S21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" t="s">
-        <v>24</v>
-      </c>
       <c r="U21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.35">
@@ -1796,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>8000</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1807,6 +1873,9 @@
       <c r="I22">
         <v>40</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
       <c r="K22">
         <v>1</v>
       </c>
@@ -1814,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1829,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" t="s">
         <v>23</v>
       </c>
-      <c r="S22" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" t="s">
-        <v>24</v>
-      </c>
       <c r="U22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/sjx619_ku_dk/Documents/Documents/GitHub/MERS-CoV-Utrecht-Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB3A7D5D-79D1-4D9A-B398-18AE8E90E107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1778C91-D071-4A14-8F6B-1B65CC6DEF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{23194D70-C8C7-4237-B8B7-83AA0EBC83C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Initial Infected Both" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="34">
   <si>
     <t>N0c</t>
   </si>
@@ -98,9 +98,6 @@
     <t>muh</t>
   </si>
   <si>
-    <t>0.0019</t>
-  </si>
-  <si>
     <t>0.1429</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>0.5122</t>
   </si>
   <si>
-    <t>0.6383</t>
-  </si>
-  <si>
     <t>0.00385</t>
   </si>
   <si>
@@ -135,6 +129,15 @@
   </si>
   <si>
     <t>0.30</t>
+  </si>
+  <si>
+    <t>0.167</t>
+  </si>
+  <si>
+    <t>0.224</t>
+  </si>
+  <si>
+    <t>0.002</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +184,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -194,11 +203,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,8 +228,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1370B5E8-DD04-4A06-A81E-8D67E31D6157}" name="Table2" displayName="Table2" ref="B2:V12" totalsRowShown="0">
-  <autoFilter ref="B2:V12" xr:uid="{1370B5E8-DD04-4A06-A81E-8D67E31D6157}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1370B5E8-DD04-4A06-A81E-8D67E31D6157}" name="Table2" displayName="Table2" ref="B2:V18" totalsRowShown="0">
+  <autoFilter ref="B2:V18" xr:uid="{1370B5E8-DD04-4A06-A81E-8D67E31D6157}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{74A1B135-A18B-4D9C-A678-D41F39BF6555}" name="Scenarios"/>
     <tableColumn id="2" xr3:uid="{E25E4DD3-985D-4B66-A6F1-BCA55EB1F7A4}" name="N0c"/>
@@ -563,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D089D767-0688-4856-B1B6-3BC53DEDA9EE}">
-  <dimension ref="B2:V12"/>
+  <dimension ref="B2:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,7 +588,7 @@
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -675,34 +686,34 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
         <v>25</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>26</v>
       </c>
-      <c r="U3" t="s">
-        <v>27</v>
-      </c>
       <c r="V3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.35">
@@ -740,34 +751,34 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" t="s">
         <v>25</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="U4" t="s">
-        <v>27</v>
-      </c>
       <c r="V4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.35">
@@ -778,7 +789,7 @@
         <v>1800000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -805,34 +816,34 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>24</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" t="s">
         <v>25</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>26</v>
       </c>
-      <c r="U5" t="s">
-        <v>27</v>
-      </c>
       <c r="V5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
@@ -858,7 +869,7 @@
         <v>34566328</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -870,34 +881,34 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
         <v>23</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" t="s">
         <v>25</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>26</v>
       </c>
-      <c r="U6" t="s">
-        <v>27</v>
-      </c>
       <c r="V6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.35">
@@ -908,7 +919,7 @@
         <v>1800000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -923,7 +934,7 @@
         <v>34566328</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -935,34 +946,34 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
         <v>23</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>24</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" t="s">
         <v>25</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>26</v>
       </c>
-      <c r="U7" t="s">
-        <v>27</v>
-      </c>
       <c r="V7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
@@ -973,7 +984,7 @@
         <v>1800000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,8 +998,8 @@
       <c r="H8">
         <v>34566328</v>
       </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1000,34 +1011,34 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
         <v>23</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>24</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>26</v>
       </c>
-      <c r="U8" t="s">
-        <v>27</v>
-      </c>
       <c r="V8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
@@ -1037,8 +1048,8 @@
       <c r="C9">
         <v>1800000</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1052,8 +1063,8 @@
       <c r="H9">
         <v>34566328</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1065,34 +1076,34 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
         <v>23</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>24</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" t="s">
         <v>25</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>26</v>
       </c>
-      <c r="U9" t="s">
-        <v>27</v>
-      </c>
       <c r="V9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.35">
@@ -1102,8 +1113,8 @@
       <c r="C10">
         <v>1800000</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
+      <c r="D10" s="5">
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1118,7 +1129,7 @@
         <v>34566328</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1130,34 +1141,34 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
         <v>23</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>24</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" t="s">
-        <v>21</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>26</v>
       </c>
-      <c r="U10" t="s">
-        <v>27</v>
-      </c>
       <c r="V10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.35">
@@ -1167,8 +1178,8 @@
       <c r="C11">
         <v>1800000</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1182,8 +1193,8 @@
       <c r="H11">
         <v>34566328</v>
       </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1195,37 +1206,37 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
         <v>23</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>24</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" t="s">
         <v>25</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>26</v>
       </c>
-      <c r="U11" t="s">
-        <v>27</v>
-      </c>
       <c r="V11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1233,7 +1244,7 @@
         <v>1800000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1248,46 +1259,436 @@
         <v>34566328</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1800000</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>34566328</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
         <v>23</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O13" t="s">
         <v>24</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" t="s">
         <v>25</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="U13" t="s">
         <v>26</v>
       </c>
-      <c r="U12" t="s">
-        <v>27</v>
-      </c>
-      <c r="V12" t="s">
-        <v>20</v>
+      <c r="V13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1800000</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>34566328</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1800000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>34566328</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1800000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>34566328</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1800000</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>34566328</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1800000</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>34566328</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" t="s">
+        <v>26</v>
+      </c>
+      <c r="V18" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1297,4 +1698,10 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{a3927f91-cda1-4696-af89-8c9f1ceffa91}" enabled="0" method="" siteId="{a3927f91-cda1-4696-af89-8c9f1ceffa91}" removed="1"/>
+</clbl:labelList>
 </file>